--- a/Tables/learning_exp.xlsx
+++ b/Tables/learning_exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90EFA63-C22F-4699-83CD-A25B207407B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E65D130-6B7E-4FDF-8192-232F21EFAB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38100" yWindow="-2370" windowWidth="17760" windowHeight="11370" xr2:uid="{D53B76AF-84BE-43C0-8A2F-EEAB83E61413}"/>
+    <workbookView xWindow="-26520" yWindow="-6420" windowWidth="16710" windowHeight="11745" xr2:uid="{D53B76AF-84BE-43C0-8A2F-EEAB83E61413}"/>
   </bookViews>
   <sheets>
     <sheet name="learning_exp" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -181,10 +181,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -198,10 +198,41 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -210,13 +241,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -231,13 +271,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -302,7 +351,7 @@
             <v>-0.029</v>
           </cell>
           <cell r="G8" t="str">
-            <v>0.090</v>
+            <v>0.17</v>
           </cell>
         </row>
         <row r="9">
@@ -325,7 +374,7 @@
             <v>(0.15)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.12)</v>
+            <v>(0.16)</v>
           </cell>
         </row>
         <row r="11">
@@ -345,7 +394,7 @@
             <v>-0.082</v>
           </cell>
           <cell r="G11" t="str">
-            <v>0.19</v>
+            <v>-0.14</v>
           </cell>
         </row>
         <row r="12">
@@ -368,7 +417,7 @@
             <v>(0.28)</v>
           </cell>
           <cell r="G12" t="str">
-            <v>(0.17)</v>
+            <v>(0.20)</v>
           </cell>
         </row>
         <row r="14">
@@ -388,7 +437,7 @@
             <v>0.12</v>
           </cell>
           <cell r="G14" t="str">
-            <v>0.14</v>
+            <v>0.17</v>
           </cell>
         </row>
         <row r="15">
@@ -411,7 +460,7 @@
             <v>(0.11)</v>
           </cell>
           <cell r="G15" t="str">
-            <v>(0.13)</v>
+            <v>(0.11)</v>
           </cell>
         </row>
         <row r="17">
@@ -431,7 +480,7 @@
             <v>0.26</v>
           </cell>
           <cell r="G17" t="str">
-            <v>-0.017</v>
+            <v>-0.28</v>
           </cell>
         </row>
         <row r="18">
@@ -454,7 +503,7 @@
             <v>(0.29)</v>
           </cell>
           <cell r="G18" t="str">
-            <v>(0.14)</v>
+            <v>(0.22)</v>
           </cell>
         </row>
         <row r="23">
@@ -883,7 +932,7 @@
             <v/>
           </cell>
           <cell r="G77" t="str">
-            <v>0.15</v>
+            <v>0.12</v>
           </cell>
         </row>
         <row r="78">
@@ -903,7 +952,7 @@
             <v/>
           </cell>
           <cell r="G78" t="str">
-            <v>(0.13)</v>
+            <v>(0.14)</v>
           </cell>
         </row>
         <row r="89">
@@ -923,7 +972,7 @@
             <v/>
           </cell>
           <cell r="G89" t="str">
-            <v>0.19</v>
+            <v>-0.17</v>
           </cell>
         </row>
         <row r="90">
@@ -943,7 +992,7 @@
             <v/>
           </cell>
           <cell r="G90" t="str">
-            <v>(0.25)</v>
+            <v>(0.20)</v>
           </cell>
         </row>
         <row r="95">
@@ -963,7 +1012,7 @@
             <v/>
           </cell>
           <cell r="G95" t="str">
-            <v>-0.23</v>
+            <v>0.13</v>
           </cell>
         </row>
         <row r="96">
@@ -983,7 +1032,7 @@
             <v/>
           </cell>
           <cell r="G96" t="str">
-            <v>(0.18)</v>
+            <v>(0.24)</v>
           </cell>
         </row>
         <row r="101">
@@ -1003,7 +1052,7 @@
             <v/>
           </cell>
           <cell r="G101" t="str">
-            <v>-0.13</v>
+            <v>-0.17</v>
           </cell>
         </row>
         <row r="102">
@@ -1023,7 +1072,7 @@
             <v/>
           </cell>
           <cell r="G102" t="str">
-            <v>(0.13)</v>
+            <v>(0.17)</v>
           </cell>
         </row>
         <row r="107">
@@ -1043,7 +1092,7 @@
             <v/>
           </cell>
           <cell r="G107" t="str">
-            <v>0.031</v>
+            <v>0.11</v>
           </cell>
         </row>
         <row r="108">
@@ -1066,7 +1115,7 @@
             <v/>
           </cell>
           <cell r="G108" t="str">
-            <v>(0.14)</v>
+            <v>(0.30)</v>
           </cell>
         </row>
         <row r="113">
@@ -1086,7 +1135,7 @@
             <v>152</v>
           </cell>
           <cell r="G113" t="str">
-            <v>150</v>
+            <v>152</v>
           </cell>
         </row>
         <row r="114">
@@ -1109,7 +1158,7 @@
             <v>0.681</v>
           </cell>
           <cell r="G114" t="str">
-            <v>0.763</v>
+            <v>0.651</v>
           </cell>
         </row>
         <row r="115">
@@ -1428,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C997E2D9-046C-4E57-9C3E-C901EDCCBC99}">
   <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G46" sqref="A2:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1445,40 +1494,40 @@
   <sheetData>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="6" t="str">
         <f>[1]learning_exp!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="6" t="str">
         <f>[1]learning_exp!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="6" t="str">
         <f>[1]learning_exp!D2</f>
         <v>(3)</v>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="E3" s="12" t="str">
         <f>[1]learning_exp!E2</f>
         <v>(4)</v>
       </c>
-      <c r="F3" s="10" t="str">
+      <c r="F3" s="6" t="str">
         <f>[1]learning_exp!F2</f>
         <v>(5)</v>
       </c>
-      <c r="G3" s="10" t="str">
+      <c r="G3" s="6" t="str">
         <f>[1]learning_exp!G2</f>
         <v>(6)</v>
       </c>
@@ -1499,17 +1548,17 @@
         <f>[1]learning_exp!D8</f>
         <v>0.090</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="13" t="str">
         <f>[1]learning_exp!E8</f>
         <v>0.094</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="14" t="str">
         <f>[1]learning_exp!F8</f>
         <v>-0.029</v>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="G4" s="14" t="str">
         <f>[1]learning_exp!G8</f>
-        <v>0.090</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1529,17 +1578,17 @@
         <f>[1]learning_exp!D9</f>
         <v>(0.12)</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E5" s="13" t="str">
         <f>[1]learning_exp!E9</f>
         <v>(0.11)</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" s="14" t="str">
         <f>[1]learning_exp!F9</f>
         <v>(0.15)</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G5" s="14" t="str">
         <f>[1]learning_exp!G9</f>
-        <v>(0.12)</v>
+        <v>(0.16)</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1558,17 +1607,17 @@
         <f>[1]learning_exp!D11</f>
         <v>0.19</v>
       </c>
-      <c r="E6" s="5" t="str">
+      <c r="E6" s="13" t="str">
         <f>[1]learning_exp!E11</f>
         <v>-0.030</v>
       </c>
-      <c r="F6" s="5" t="str">
+      <c r="F6" s="14" t="str">
         <f>[1]learning_exp!F11</f>
         <v>-0.082</v>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="G6" s="14" t="str">
         <f>[1]learning_exp!G11</f>
-        <v>0.19</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1588,17 +1637,17 @@
         <f>[1]learning_exp!D12</f>
         <v>(0.17)</v>
       </c>
-      <c r="E7" s="5" t="str">
+      <c r="E7" s="13" t="str">
         <f>[1]learning_exp!E12</f>
         <v>(0.18)</v>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" s="14" t="str">
         <f>[1]learning_exp!F12</f>
         <v>(0.28)</v>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="14" t="str">
         <f>[1]learning_exp!G12</f>
-        <v>(0.17)</v>
+        <v>(0.20)</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1617,17 +1666,17 @@
         <f>[1]learning_exp!D14</f>
         <v>0.14</v>
       </c>
-      <c r="E8" s="5" t="str">
+      <c r="E8" s="13" t="str">
         <f>[1]learning_exp!E14</f>
         <v>0.085</v>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" s="14" t="str">
         <f>[1]learning_exp!F14</f>
         <v>0.12</v>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="14" t="str">
         <f>[1]learning_exp!G14</f>
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1647,17 +1696,17 @@
         <f>[1]learning_exp!D15</f>
         <v>(0.13)</v>
       </c>
-      <c r="E9" s="5" t="str">
+      <c r="E9" s="13" t="str">
         <f>[1]learning_exp!E15</f>
         <v>(0.071)</v>
       </c>
-      <c r="F9" s="5" t="str">
+      <c r="F9" s="14" t="str">
         <f>[1]learning_exp!F15</f>
         <v>(0.11)</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G9" s="14" t="str">
         <f>[1]learning_exp!G15</f>
-        <v>(0.13)</v>
+        <v>(0.11)</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1676,17 +1725,17 @@
         <f>[1]learning_exp!D17</f>
         <v>-0.017</v>
       </c>
-      <c r="E10" s="5" t="str">
+      <c r="E10" s="13" t="str">
         <f>[1]learning_exp!E17</f>
         <v>-0.20</v>
       </c>
-      <c r="F10" s="5" t="str">
+      <c r="F10" s="14" t="str">
         <f>[1]learning_exp!F17</f>
         <v>0.26</v>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="14" t="str">
         <f>[1]learning_exp!G17</f>
-        <v>-0.017</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1706,17 +1755,17 @@
         <f>[1]learning_exp!D18</f>
         <v>(0.14)</v>
       </c>
-      <c r="E11" s="5" t="str">
+      <c r="E11" s="13" t="str">
         <f>[1]learning_exp!E18</f>
         <v>(0.16)</v>
       </c>
-      <c r="F11" s="5" t="str">
+      <c r="F11" s="14" t="str">
         <f>[1]learning_exp!F18</f>
         <v>(0.29)</v>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="G11" s="14" t="str">
         <f>[1]learning_exp!G18</f>
-        <v>(0.14)</v>
+        <v>(0.22)</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1735,15 +1784,15 @@
         <f>[1]learning_exp!D23</f>
         <v/>
       </c>
-      <c r="E12" s="5" t="str">
+      <c r="E12" s="13" t="str">
         <f>[1]learning_exp!E23</f>
         <v/>
       </c>
-      <c r="F12" s="5" t="str">
+      <c r="F12" s="14" t="str">
         <f>[1]learning_exp!F23</f>
         <v>-0.21</v>
       </c>
-      <c r="G12" s="5" t="str">
+      <c r="G12" s="14" t="str">
         <f>[1]learning_exp!G23</f>
         <v/>
       </c>
@@ -1765,15 +1814,15 @@
         <f>[1]learning_exp!D24</f>
         <v/>
       </c>
-      <c r="E13" s="5" t="str">
+      <c r="E13" s="13" t="str">
         <f>[1]learning_exp!E24</f>
         <v/>
       </c>
-      <c r="F13" s="5" t="str">
+      <c r="F13" s="14" t="str">
         <f>[1]learning_exp!F24</f>
         <v>(0.22)</v>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="G13" s="14" t="str">
         <f>[1]learning_exp!G24</f>
         <v/>
       </c>
@@ -1794,15 +1843,15 @@
         <f>[1]learning_exp!D26</f>
         <v/>
       </c>
-      <c r="E14" s="5" t="str">
+      <c r="E14" s="13" t="str">
         <f>[1]learning_exp!E26</f>
         <v/>
       </c>
-      <c r="F14" s="5" t="str">
+      <c r="F14" s="14" t="str">
         <f>[1]learning_exp!F26</f>
         <v>0.027</v>
       </c>
-      <c r="G14" s="5" t="str">
+      <c r="G14" s="14" t="str">
         <f>[1]learning_exp!G26</f>
         <v/>
       </c>
@@ -1824,15 +1873,15 @@
         <f>[1]learning_exp!D27</f>
         <v/>
       </c>
-      <c r="E15" s="5" t="str">
+      <c r="E15" s="13" t="str">
         <f>[1]learning_exp!E27</f>
         <v/>
       </c>
-      <c r="F15" s="5" t="str">
+      <c r="F15" s="14" t="str">
         <f>[1]learning_exp!F27</f>
         <v>(0.15)</v>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G15" s="14" t="str">
         <f>[1]learning_exp!G27</f>
         <v/>
       </c>
@@ -1853,15 +1902,15 @@
         <f>[1]learning_exp!D41</f>
         <v/>
       </c>
-      <c r="E16" s="5" t="str">
+      <c r="E16" s="13" t="str">
         <f>[1]learning_exp!E41</f>
         <v/>
       </c>
-      <c r="F16" s="5" t="str">
+      <c r="F16" s="14" t="str">
         <f>[1]learning_exp!F41</f>
         <v>0.46</v>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="G16" s="14" t="str">
         <f>[1]learning_exp!G41</f>
         <v/>
       </c>
@@ -1883,15 +1932,15 @@
         <f>[1]learning_exp!D42</f>
         <v/>
       </c>
-      <c r="E17" s="5" t="str">
+      <c r="E17" s="13" t="str">
         <f>[1]learning_exp!E42</f>
         <v/>
       </c>
-      <c r="F17" s="5" t="str">
+      <c r="F17" s="14" t="str">
         <f>[1]learning_exp!F42</f>
         <v>(0.28)</v>
       </c>
-      <c r="G17" s="5" t="str">
+      <c r="G17" s="14" t="str">
         <f>[1]learning_exp!G42</f>
         <v/>
       </c>
@@ -1912,15 +1961,15 @@
         <f>[1]learning_exp!D44</f>
         <v/>
       </c>
-      <c r="E18" s="5" t="str">
+      <c r="E18" s="13" t="str">
         <f>[1]learning_exp!E44</f>
         <v/>
       </c>
-      <c r="F18" s="5" t="str">
+      <c r="F18" s="14" t="str">
         <f>[1]learning_exp!F44</f>
         <v>-0.14</v>
       </c>
-      <c r="G18" s="5" t="str">
+      <c r="G18" s="14" t="str">
         <f>[1]learning_exp!G44</f>
         <v/>
       </c>
@@ -1938,15 +1987,15 @@
         <f>[1]learning_exp!D45</f>
         <v/>
       </c>
-      <c r="E19" s="5" t="str">
+      <c r="E19" s="13" t="str">
         <f>[1]learning_exp!E45</f>
         <v/>
       </c>
-      <c r="F19" s="5" t="str">
+      <c r="F19" s="14" t="str">
         <f>[1]learning_exp!F45</f>
         <v>(0.27)</v>
       </c>
-      <c r="G19" s="5" t="str">
+      <c r="G19" s="14" t="str">
         <f>[1]learning_exp!G45</f>
         <v/>
       </c>
@@ -1967,15 +2016,15 @@
         <f>[1]learning_exp!D50</f>
         <v/>
       </c>
-      <c r="E20" s="5" t="str">
+      <c r="E20" s="13" t="str">
         <f>[1]learning_exp!E50</f>
         <v/>
       </c>
-      <c r="F20" s="5" t="str">
+      <c r="F20" s="14" t="str">
         <f>[1]learning_exp!F50</f>
         <v>0.30</v>
       </c>
-      <c r="G20" s="5" t="str">
+      <c r="G20" s="14" t="str">
         <f>[1]learning_exp!G50</f>
         <v/>
       </c>
@@ -1993,15 +2042,15 @@
         <f>[1]learning_exp!D51</f>
         <v/>
       </c>
-      <c r="E21" s="5" t="str">
+      <c r="E21" s="13" t="str">
         <f>[1]learning_exp!E51</f>
         <v/>
       </c>
-      <c r="F21" s="5" t="str">
+      <c r="F21" s="14" t="str">
         <f>[1]learning_exp!F51</f>
         <v>(0.34)</v>
       </c>
-      <c r="G21" s="5" t="str">
+      <c r="G21" s="14" t="str">
         <f>[1]learning_exp!G51</f>
         <v/>
       </c>
@@ -2022,15 +2071,15 @@
         <f>[1]learning_exp!D53</f>
         <v/>
       </c>
-      <c r="E22" s="5" t="str">
+      <c r="E22" s="13" t="str">
         <f>[1]learning_exp!E53</f>
         <v/>
       </c>
-      <c r="F22" s="5" t="str">
+      <c r="F22" s="14" t="str">
         <f>[1]learning_exp!F53</f>
         <v>-0.016</v>
       </c>
-      <c r="G22" s="5" t="str">
+      <c r="G22" s="14" t="str">
         <f>[1]learning_exp!G53</f>
         <v/>
       </c>
@@ -2048,15 +2097,15 @@
         <f>[1]learning_exp!D54</f>
         <v/>
       </c>
-      <c r="E23" s="5" t="str">
+      <c r="E23" s="13" t="str">
         <f>[1]learning_exp!E54</f>
         <v/>
       </c>
-      <c r="F23" s="5" t="str">
+      <c r="F23" s="14" t="str">
         <f>[1]learning_exp!F54</f>
         <v>(0.39)</v>
       </c>
-      <c r="G23" s="5" t="str">
+      <c r="G23" s="14" t="str">
         <f>[1]learning_exp!G54</f>
         <v/>
       </c>
@@ -2077,15 +2126,15 @@
         <f>[1]learning_exp!D59</f>
         <v/>
       </c>
-      <c r="E24" s="5" t="str">
+      <c r="E24" s="13" t="str">
         <f>[1]learning_exp!E59</f>
         <v/>
       </c>
-      <c r="F24" s="5" t="str">
+      <c r="F24" s="14" t="str">
         <f>[1]learning_exp!F59</f>
         <v>0.12</v>
       </c>
-      <c r="G24" s="5" t="str">
+      <c r="G24" s="14" t="str">
         <f>[1]learning_exp!G59</f>
         <v/>
       </c>
@@ -2103,15 +2152,15 @@
         <f>[1]learning_exp!D60</f>
         <v/>
       </c>
-      <c r="E25" s="5" t="str">
+      <c r="E25" s="13" t="str">
         <f>[1]learning_exp!E60</f>
         <v/>
       </c>
-      <c r="F25" s="5" t="str">
+      <c r="F25" s="14" t="str">
         <f>[1]learning_exp!F60</f>
         <v>(0.24)</v>
       </c>
-      <c r="G25" s="5" t="str">
+      <c r="G25" s="14" t="str">
         <f>[1]learning_exp!G60</f>
         <v/>
       </c>
@@ -2132,15 +2181,15 @@
         <f>[1]learning_exp!D62</f>
         <v/>
       </c>
-      <c r="E26" s="5" t="str">
+      <c r="E26" s="13" t="str">
         <f>[1]learning_exp!E62</f>
         <v/>
       </c>
-      <c r="F26" s="5" t="str">
+      <c r="F26" s="14" t="str">
         <f>[1]learning_exp!F62</f>
         <v>-0.044</v>
       </c>
-      <c r="G26" s="5" t="str">
+      <c r="G26" s="14" t="str">
         <f>[1]learning_exp!G62</f>
         <v/>
       </c>
@@ -2158,15 +2207,15 @@
         <f>[1]learning_exp!D63</f>
         <v/>
       </c>
-      <c r="E27" s="5" t="str">
+      <c r="E27" s="13" t="str">
         <f>[1]learning_exp!E63</f>
         <v/>
       </c>
-      <c r="F27" s="5" t="str">
+      <c r="F27" s="14" t="str">
         <f>[1]learning_exp!F63</f>
         <v>(0.18)</v>
       </c>
-      <c r="G27" s="5" t="str">
+      <c r="G27" s="14" t="str">
         <f>[1]learning_exp!G63</f>
         <v/>
       </c>
@@ -2187,15 +2236,15 @@
         <f>[1]learning_exp!D68</f>
         <v/>
       </c>
-      <c r="E28" s="5" t="str">
+      <c r="E28" s="13" t="str">
         <f>[1]learning_exp!E68</f>
         <v/>
       </c>
-      <c r="F28" s="5" t="str">
+      <c r="F28" s="14" t="str">
         <f>[1]learning_exp!F68</f>
         <v>-0.38</v>
       </c>
-      <c r="G28" s="5" t="str">
+      <c r="G28" s="14" t="str">
         <f>[1]learning_exp!G68</f>
         <v/>
       </c>
@@ -2213,15 +2262,15 @@
         <f>[1]learning_exp!D69</f>
         <v/>
       </c>
-      <c r="E29" s="5" t="str">
+      <c r="E29" s="13" t="str">
         <f>[1]learning_exp!E69</f>
         <v/>
       </c>
-      <c r="F29" s="5" t="str">
+      <c r="F29" s="14" t="str">
         <f>[1]learning_exp!F69</f>
         <v>(0.29)</v>
       </c>
-      <c r="G29" s="5" t="str">
+      <c r="G29" s="14" t="str">
         <f>[1]learning_exp!G69</f>
         <v/>
       </c>
@@ -2242,15 +2291,15 @@
         <f>[1]learning_exp!D71</f>
         <v/>
       </c>
-      <c r="E30" s="5" t="str">
+      <c r="E30" s="13" t="str">
         <f>[1]learning_exp!E71</f>
         <v/>
       </c>
-      <c r="F30" s="5" t="str">
+      <c r="F30" s="14" t="str">
         <f>[1]learning_exp!F71</f>
         <v>-0.39</v>
       </c>
-      <c r="G30" s="5" t="str">
+      <c r="G30" s="14" t="str">
         <f>[1]learning_exp!G71</f>
         <v/>
       </c>
@@ -2268,15 +2317,15 @@
         <f>[1]learning_exp!D72</f>
         <v/>
       </c>
-      <c r="E31" s="5" t="str">
+      <c r="E31" s="13" t="str">
         <f>[1]learning_exp!E72</f>
         <v/>
       </c>
-      <c r="F31" s="5" t="str">
+      <c r="F31" s="14" t="str">
         <f>[1]learning_exp!F72</f>
         <v>(0.36)</v>
       </c>
-      <c r="G31" s="5" t="str">
+      <c r="G31" s="14" t="str">
         <f>[1]learning_exp!G72</f>
         <v/>
       </c>
@@ -2297,17 +2346,17 @@
         <f>[1]learning_exp!D77</f>
         <v>0.15</v>
       </c>
-      <c r="E32" s="5" t="str">
+      <c r="E32" s="13" t="str">
         <f>[1]learning_exp!E77</f>
         <v/>
       </c>
-      <c r="F32" s="5" t="str">
+      <c r="F32" s="14" t="str">
         <f>[1]learning_exp!F77</f>
         <v/>
       </c>
-      <c r="G32" s="5" t="str">
+      <c r="G32" s="14" t="str">
         <f>[1]learning_exp!G77</f>
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2323,17 +2372,17 @@
         <f>[1]learning_exp!D78</f>
         <v>(0.13)</v>
       </c>
-      <c r="E33" s="5" t="str">
+      <c r="E33" s="13" t="str">
         <f>[1]learning_exp!E78</f>
         <v/>
       </c>
-      <c r="F33" s="5" t="str">
+      <c r="F33" s="14" t="str">
         <f>[1]learning_exp!F78</f>
         <v/>
       </c>
-      <c r="G33" s="5" t="str">
+      <c r="G33" s="14" t="str">
         <f>[1]learning_exp!G78</f>
-        <v>(0.13)</v>
+        <v>(0.14)</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2352,17 +2401,17 @@
         <f>[1]learning_exp!D89</f>
         <v>0.19</v>
       </c>
-      <c r="E34" s="5" t="str">
+      <c r="E34" s="13" t="str">
         <f>[1]learning_exp!E89</f>
         <v/>
       </c>
-      <c r="F34" s="5" t="str">
+      <c r="F34" s="14" t="str">
         <f>[1]learning_exp!F89</f>
         <v/>
       </c>
-      <c r="G34" s="5" t="str">
+      <c r="G34" s="14" t="str">
         <f>[1]learning_exp!G89</f>
-        <v>0.19</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2378,17 +2427,17 @@
         <f>[1]learning_exp!D90</f>
         <v>(0.25)</v>
       </c>
-      <c r="E35" s="5" t="str">
+      <c r="E35" s="13" t="str">
         <f>[1]learning_exp!E90</f>
         <v/>
       </c>
-      <c r="F35" s="5" t="str">
+      <c r="F35" s="14" t="str">
         <f>[1]learning_exp!F90</f>
         <v/>
       </c>
-      <c r="G35" s="5" t="str">
+      <c r="G35" s="14" t="str">
         <f>[1]learning_exp!G90</f>
-        <v>(0.25)</v>
+        <v>(0.20)</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2407,17 +2456,17 @@
         <f>[1]learning_exp!D95</f>
         <v>-0.23</v>
       </c>
-      <c r="E36" s="5" t="str">
+      <c r="E36" s="13" t="str">
         <f>[1]learning_exp!E95</f>
         <v/>
       </c>
-      <c r="F36" s="5" t="str">
+      <c r="F36" s="14" t="str">
         <f>[1]learning_exp!F95</f>
         <v/>
       </c>
-      <c r="G36" s="5" t="str">
+      <c r="G36" s="14" t="str">
         <f>[1]learning_exp!G95</f>
-        <v>-0.23</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2433,17 +2482,17 @@
         <f>[1]learning_exp!D96</f>
         <v>(0.18)</v>
       </c>
-      <c r="E37" s="5" t="str">
+      <c r="E37" s="13" t="str">
         <f>[1]learning_exp!E96</f>
         <v/>
       </c>
-      <c r="F37" s="5" t="str">
+      <c r="F37" s="14" t="str">
         <f>[1]learning_exp!F96</f>
         <v/>
       </c>
-      <c r="G37" s="5" t="str">
+      <c r="G37" s="14" t="str">
         <f>[1]learning_exp!G96</f>
-        <v>(0.18)</v>
+        <v>(0.24)</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2462,17 +2511,17 @@
         <f>[1]learning_exp!D101</f>
         <v>-0.13</v>
       </c>
-      <c r="E38" s="5" t="str">
+      <c r="E38" s="13" t="str">
         <f>[1]learning_exp!E101</f>
         <v/>
       </c>
-      <c r="F38" s="5" t="str">
+      <c r="F38" s="14" t="str">
         <f>[1]learning_exp!F101</f>
         <v/>
       </c>
-      <c r="G38" s="5" t="str">
+      <c r="G38" s="14" t="str">
         <f>[1]learning_exp!G101</f>
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2488,17 +2537,17 @@
         <f>[1]learning_exp!D102</f>
         <v>(0.13)</v>
       </c>
-      <c r="E39" s="5" t="str">
+      <c r="E39" s="13" t="str">
         <f>[1]learning_exp!E102</f>
         <v/>
       </c>
-      <c r="F39" s="5" t="str">
+      <c r="F39" s="14" t="str">
         <f>[1]learning_exp!F102</f>
         <v/>
       </c>
-      <c r="G39" s="5" t="str">
+      <c r="G39" s="14" t="str">
         <f>[1]learning_exp!G102</f>
-        <v>(0.13)</v>
+        <v>(0.17)</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2517,17 +2566,17 @@
         <f>[1]learning_exp!D107</f>
         <v>0.031</v>
       </c>
-      <c r="E40" s="5" t="str">
+      <c r="E40" s="13" t="str">
         <f>[1]learning_exp!E107</f>
         <v/>
       </c>
-      <c r="F40" s="5" t="str">
+      <c r="F40" s="14" t="str">
         <f>[1]learning_exp!F107</f>
         <v/>
       </c>
-      <c r="G40" s="5" t="str">
+      <c r="G40" s="14" t="str">
         <f>[1]learning_exp!G107</f>
-        <v>0.031</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2547,46 +2596,51 @@
         <f>[1]learning_exp!D108</f>
         <v>(0.14)</v>
       </c>
-      <c r="E41" s="5" t="str">
+      <c r="E41" s="13" t="str">
         <f>[1]learning_exp!E108</f>
         <v/>
       </c>
-      <c r="F41" s="5" t="str">
+      <c r="F41" s="14" t="str">
         <f>[1]learning_exp!F108</f>
         <v/>
       </c>
-      <c r="G41" s="5" t="str">
+      <c r="G41" s="14" t="str">
         <f>[1]learning_exp!G108</f>
-        <v>(0.14)</v>
-      </c>
+        <v>(0.30)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="11" t="str">
+      <c r="B43" s="7" t="str">
         <f>[1]learning_exp!B113</f>
         <v>150</v>
       </c>
-      <c r="C43" s="11" t="str">
+      <c r="C43" s="7" t="str">
         <f>[1]learning_exp!C113</f>
         <v>150</v>
       </c>
-      <c r="D43" s="11" t="str">
+      <c r="D43" s="7" t="str">
         <f>[1]learning_exp!D113</f>
         <v>150</v>
       </c>
-      <c r="E43" s="11" t="str">
+      <c r="E43" s="15" t="str">
         <f>[1]learning_exp!E113</f>
         <v>152</v>
       </c>
-      <c r="F43" s="11" t="str">
+      <c r="F43" s="7" t="str">
         <f>[1]learning_exp!F113</f>
         <v>152</v>
       </c>
-      <c r="G43" s="11" t="str">
+      <c r="G43" s="7" t="str">
         <f>[1]learning_exp!G113</f>
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2606,17 +2660,17 @@
         <f>[1]learning_exp!D114</f>
         <v>0.763</v>
       </c>
-      <c r="E44" s="5" t="str">
+      <c r="E44" s="13" t="str">
         <f>[1]learning_exp!E114</f>
         <v>0.640</v>
       </c>
-      <c r="F44" s="5" t="str">
+      <c r="F44" s="14" t="str">
         <f>[1]learning_exp!F114</f>
         <v>0.681</v>
       </c>
-      <c r="G44" s="5" t="str">
+      <c r="G44" s="14" t="str">
         <f>[1]learning_exp!G114</f>
-        <v>0.763</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2624,39 +2678,39 @@
         <f>[1]learning_exp!A115</f>
         <v>DepVarMean</v>
       </c>
-      <c r="B45" s="6" t="str">
+      <c r="B45" s="9" t="str">
         <f>[1]learning_exp!B115</f>
         <v>0.053</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6" t="str">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="16" t="str">
         <f>[1]learning_exp!E115</f>
         <v>0.20</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="8" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Tables/learning_exp.xlsx
+++ b/Tables/learning_exp.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB6035B-75A8-46DD-A5D5-D11812551556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49380946-C958-4590-8D99-19748A34B1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{5BB4C7CB-B50C-49F1-B78A-6C7DF9264935}"/>
+    <workbookView xWindow="2955" yWindow="1575" windowWidth="21585" windowHeight="11235" xr2:uid="{5BB4C7CB-B50C-49F1-B78A-6C7DF9264935}"/>
   </bookViews>
   <sheets>
-    <sheet name="learning_exp_pres" sheetId="2" r:id="rId1"/>
-    <sheet name="learning_exp" sheetId="1" r:id="rId2"/>
+    <sheet name="learning_exp" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,21 +39,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Observations</t>
-  </si>
-  <si>
-    <t>$t-1$</t>
-  </si>
-  <si>
-    <t>Choose commitment</t>
   </si>
   <si>
     <t>Forced commitment (ATE)</t>
   </si>
   <si>
     <t>Choice commitment (ITT)</t>
+  </si>
+  <si>
+    <t>$t$</t>
+  </si>
+  <si>
+    <t>Choose commitment in $t+1$</t>
+  </si>
+  <si>
+    <t>Ever choose commitment in $t+1$</t>
+  </si>
+  <si>
+    <t>DepVarMean</t>
   </si>
 </sst>
 </file>
@@ -78,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -122,11 +127,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,18 +159,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,158 +198,67 @@
           <cell r="B2" t="str">
             <v>(1)</v>
           </cell>
+          <cell r="C2" t="str">
+            <v>(2)</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>-0.0047</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>0.00014</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>(0.048)</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>(0.0027)</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-0.0010</v>
+            <v>0.034</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>0.0015</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>(0.044)</v>
+            <v>(0.057)</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>(0.0030)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>0.042</v>
+            <v>228</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>4436</v>
           </cell>
         </row>
         <row r="12">
+          <cell r="A12" t="str">
+            <v>R-sq</v>
+          </cell>
           <cell r="B12" t="str">
-            <v>(0.055)</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>ToT</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>0.049</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v/>
-          </cell>
-          <cell r="C18" t="str">
-            <v>(0.065)</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>TuT</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>-0.32</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v/>
-          </cell>
-          <cell r="C21" t="str">
-            <v>(0.33)</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>ToT-TuT</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>0.36</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v/>
-          </cell>
-          <cell r="C30" t="str">
-            <v>(0.37)</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>ASB</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>-0.68***</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v/>
-          </cell>
-          <cell r="C33" t="str">
-            <v>(0.20)</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>ASL</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>-0.23</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v/>
-          </cell>
-          <cell r="C36" t="str">
-            <v>(0.28)</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>240</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>R-sq</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>0.005</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>DepVarMean</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>0.087</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>H_0 : ATE-TuT=0</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>0.31</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>H_0 : ATE-ToT=0</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>0.40</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>H_0 : ToT-TuT=0</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>0.32</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>H_0 : ToT-TuT$\geq$ 0</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>0.16</v>
+            <v>0.004</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>0.000</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>0.092</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>0.0047</v>
           </cell>
         </row>
       </sheetData>
@@ -667,342 +587,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470EC73B-746D-434C-89E0-0C448D9F1690}">
-  <dimension ref="A2:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53068154-F0CD-4D2F-B593-EF6CCA7C82CD}">
+  <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>[1]learning_exp!B2</f>
         <v>(1)</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="str">
+        <f>[1]learning_exp!C2</f>
+        <v>(2)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>[1]learning_exp!B8</f>
-        <v>-0.0010</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]learning_exp!B5</f>
+        <v>-0.0047</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>[1]learning_exp!C5</f>
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>[2]learning_dif_att!A9</f>
         <v/>
       </c>
       <c r="B6" s="1" t="str">
+        <f>[1]learning_exp!B6</f>
+        <v>(0.048)</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>[1]learning_exp!C6</f>
+        <v>(0.0027)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>[1]learning_exp!B8</f>
+        <v>0.034</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>[1]learning_exp!C8</f>
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="str">
         <f>[1]learning_exp!B9</f>
-        <v>(0.044)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="str">
+        <v>(0.057)</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>[1]learning_exp!C9</f>
+        <v>(0.0030)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="str">
         <f>[1]learning_exp!B11</f>
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="str">
+        <v>228</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>[1]learning_exp!C11</f>
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>[1]learning_exp!A12</f>
+        <v>R-sq</v>
+      </c>
+      <c r="B11" s="1" t="str">
         <f>[1]learning_exp!B12</f>
-        <v>(0.055)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>[1]learning_exp!B41</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
-        <f>[1]learning_exp!A42</f>
-        <v>R-sq</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f>[1]learning_exp!B42</f>
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="str">
-        <f>[1]learning_exp!A43</f>
-        <v>DepVarMean</v>
+        <v>0.004</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>[1]learning_exp!C12</f>
+        <v>0.000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f>[1]learning_exp!B43</f>
-        <v>0.087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53068154-F0CD-4D2F-B593-EF6CCA7C82CD}">
-  <dimension ref="A2:B27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="str">
-        <f>[1]learning_exp!B2</f>
-        <v>(1)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f>[1]learning_exp!B8</f>
-        <v>-0.0010</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="str">
-        <f>[2]learning_dif_att!A9</f>
-        <v/>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f>[1]learning_exp!B9</f>
-        <v>(0.044)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <f>[1]learning_exp!B11</f>
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="str">
-        <f>[1]learning_exp!B12</f>
-        <v>(0.055)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
-        <f>[1]learning_exp!A17</f>
-        <v>ToT</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f>[1]learning_exp!C17</f>
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
-        <f>[1]learning_exp!A18</f>
-        <v/>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f>[1]learning_exp!C18</f>
-        <v>(0.065)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
-        <f>[1]learning_exp!A20</f>
-        <v>TuT</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f>[1]learning_exp!C20</f>
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
-        <f>[1]learning_exp!A21</f>
-        <v/>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f>[1]learning_exp!C21</f>
-        <v>(0.33)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="str">
-        <f>[1]learning_exp!A29</f>
-        <v>ToT-TuT</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <f>[1]learning_exp!C29</f>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
-        <f>[1]learning_exp!A30</f>
-        <v/>
-      </c>
-      <c r="B14" s="1" t="str">
-        <f>[1]learning_exp!C30</f>
-        <v>(0.37)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
-        <f>[1]learning_exp!A32</f>
-        <v>ASB</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f>[1]learning_exp!C32</f>
-        <v>-0.68***</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
-        <f>[1]learning_exp!A33</f>
-        <v/>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f>[1]learning_exp!C33</f>
-        <v>(0.20)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
-        <f>[1]learning_exp!A35</f>
-        <v>ASL</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f>[1]learning_exp!C35</f>
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
-        <f>[1]learning_exp!A36</f>
-        <v/>
-      </c>
-      <c r="B18" s="1" t="str">
-        <f>[1]learning_exp!C36</f>
-        <v>(0.28)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <f>[1]learning_exp!B41</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
-        <f>[1]learning_exp!A42</f>
-        <v>R-sq</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <f>[1]learning_exp!B42</f>
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
-        <f>[1]learning_exp!A43</f>
-        <v>DepVarMean</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <f>[1]learning_exp!B43</f>
-        <v>0.087</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
-        <f>[1]learning_exp!A44</f>
-        <v>H_0 : ATE-TuT=0</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <f>[1]learning_exp!C44</f>
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
-        <f>[1]learning_exp!A45</f>
-        <v>H_0 : ATE-ToT=0</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <f>[1]learning_exp!C45</f>
-        <v>0.40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
-        <f>[1]learning_exp!A46</f>
-        <v>H_0 : ToT-TuT=0</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <f>[1]learning_exp!C46</f>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="str">
-        <f>[1]learning_exp!A47</f>
-        <v>H_0 : ToT-TuT$\geq$ 0</v>
-      </c>
-      <c r="B26" s="3" t="str">
-        <f>[1]learning_exp!C47</f>
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <f>[1]learning_exp!B13</f>
+        <v>0.092</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f>[1]learning_exp!C13</f>
+        <v>0.0047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/learning_exp.xlsx
+++ b/Tables/learning_exp.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49380946-C958-4590-8D99-19748A34B1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C36D9-E026-4052-84F1-EA1BA29A84F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1575" windowWidth="21585" windowHeight="11235" xr2:uid="{5BB4C7CB-B50C-49F1-B78A-6C7DF9264935}"/>
+    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5BB4C7CB-B50C-49F1-B78A-6C7DF9264935}"/>
   </bookViews>
   <sheets>
     <sheet name="learning_exp" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -142,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,13 +158,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,7 +237,7 @@
             <v>228</v>
           </cell>
           <cell r="C11" t="str">
-            <v>4436</v>
+            <v>4441</v>
           </cell>
         </row>
         <row r="12">
@@ -259,30 +257,6 @@
           </cell>
           <cell r="C13" t="str">
             <v>0.0047</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="learning_dif_att"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v/>
           </cell>
         </row>
       </sheetData>
@@ -591,31 +565,31 @@
   <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -627,8 +601,8 @@
         <v>(2)</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="str">
@@ -640,11 +614,7 @@
         <v>0.00014</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="str">
-        <f>[2]learning_dif_att!A9</f>
-        <v/>
-      </c>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="str">
         <f>[1]learning_exp!B6</f>
         <v>(0.048)</v>
@@ -654,8 +624,8 @@
         <v>(0.0027)</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="str">
@@ -667,7 +637,7 @@
         <v>0.0015</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="str">
         <f>[1]learning_exp!B9</f>
         <v>(0.057)</v>
@@ -677,8 +647,8 @@
         <v>(0.0030)</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -687,11 +657,11 @@
       </c>
       <c r="C10" s="2" t="str">
         <f>[1]learning_exp!C11</f>
-        <v>4436</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
         <f>[1]learning_exp!A12</f>
         <v>R-sq</v>
       </c>
@@ -704,8 +674,8 @@
         <v>0.000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="str">
@@ -717,7 +687,7 @@
         <v>0.0047</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/learning_exp.xlsx
+++ b/Tables/learning_exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C36D9-E026-4052-84F1-EA1BA29A84F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A036CC51-7D08-4630-828A-36CEC9934E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5BB4C7CB-B50C-49F1-B78A-6C7DF9264935}"/>
+    <workbookView xWindow="-16515" yWindow="-10020" windowWidth="14400" windowHeight="8175" xr2:uid="{5BB4C7CB-B50C-49F1-B78A-6C7DF9264935}"/>
   </bookViews>
   <sheets>
     <sheet name="learning_exp" sheetId="1" r:id="rId1"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53068154-F0CD-4D2F-B593-EF6CCA7C82CD}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Tables/learning_exp.xlsx
+++ b/Tables/learning_exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A036CC51-7D08-4630-828A-36CEC9934E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED764C5-E495-40DC-B6DD-DB66A02E1C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16515" yWindow="-10020" windowWidth="14400" windowHeight="8175" xr2:uid="{5BB4C7CB-B50C-49F1-B78A-6C7DF9264935}"/>
+    <workbookView xWindow="-19005" yWindow="-12510" windowWidth="21600" windowHeight="11235" xr2:uid="{5BB4C7CB-B50C-49F1-B78A-6C7DF9264935}"/>
   </bookViews>
   <sheets>
     <sheet name="learning_exp" sheetId="1" r:id="rId1"/>

--- a/Tables/learning_exp.xlsx
+++ b/Tables/learning_exp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED764C5-E495-40DC-B6DD-DB66A02E1C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB51971-A67B-4490-992B-FDAFF77CA4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19005" yWindow="-12510" windowWidth="21600" windowHeight="11235" xr2:uid="{5BB4C7CB-B50C-49F1-B78A-6C7DF9264935}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5BB4C7CB-B50C-49F1-B78A-6C7DF9264935}"/>
   </bookViews>
   <sheets>
     <sheet name="learning_exp" sheetId="1" r:id="rId1"/>
@@ -43,22 +43,22 @@
     <t>Observations</t>
   </si>
   <si>
-    <t>Forced commitment (ATE)</t>
-  </si>
-  <si>
-    <t>Choice commitment (ITT)</t>
-  </si>
-  <si>
     <t>$t$</t>
   </si>
   <si>
-    <t>Choose commitment in $t+1$</t>
+    <t>DepVarMean</t>
   </si>
   <si>
-    <t>Ever choose commitment in $t+1$</t>
+    <t>Mandatory structured (ATE)</t>
   </si>
   <si>
-    <t>DepVarMean</t>
+    <t>Choice  (ITT)</t>
+  </si>
+  <si>
+    <t>Choose structure in $t+1$</t>
+  </si>
+  <si>
+    <t>Ever choose structure in $t+1$</t>
   </si>
 </sst>
 </file>
@@ -266,9 +266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,7 +306,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -412,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -554,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53068154-F0CD-4D2F-B593-EF6CCA7C82CD}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C12"/>
     </sheetView>
   </sheetViews>
@@ -582,15 +582,15 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>[1]learning_exp!B2</f>
@@ -603,7 +603,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]learning_exp!B5</f>
@@ -626,7 +626,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]learning_exp!B8</f>
@@ -676,7 +676,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3" t="str">
         <f>[1]learning_exp!B13</f>
